--- a/data/GGG_1.xlsx
+++ b/data/GGG_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A09084CF-3ACE-5D45-9B54-62838D66CFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A611E5A5-2952-3D4D-BEB8-949A19FC0D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="500" windowWidth="27640" windowHeight="15800" xr2:uid="{88AE58F3-A44A-A34D-B329-9D2F6246ACBF}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15800" xr2:uid="{88AE58F3-A44A-A34D-B329-9D2F6246ACBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>colony count</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>37/37</t>
   </si>
@@ -97,7 +94,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -385,7 +382,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -393,163 +390,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791CF9CB-22BE-6843-85A4-B8EA161D19D8}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
         <v>423</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
         <v>1322</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
         <v>514</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
         <v>1904</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
         <v>356</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
         <v>562</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
         <v>344</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
         <v>433</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
         <v>902</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
         <v>90</v>
       </c>
     </row>
